--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F7AD8D-1D9B-1348-9E37-6789E847C4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06BB55D-C446-984D-B157-949703E60D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1600" windowWidth="41400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1600" windowWidth="47140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="376">
   <si>
     <t>iso</t>
   </si>
@@ -1155,6 +1155,12 @@
   </si>
   <si>
     <t>years outside range</t>
+  </si>
+  <si>
+    <t>*adm2 is available but takes too long to run</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1206,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1510,11 +1516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L120" sqref="L120"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1530,10 +1536,11 @@
     <col min="10" max="10" width="56.1640625" style="2" customWidth="1"/>
     <col min="11" max="12" width="8.83203125" style="2"/>
     <col min="13" max="13" width="18.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="2"/>
+    <col min="14" max="14" width="32.83203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,8 +1580,11 @@
       <c r="M1" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1806,7 +1816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1838,7 +1848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1876,7 +1886,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1957,7 +1967,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1989,7 +1999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
@@ -2674,7 +2684,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>127</v>
       </c>
@@ -2706,7 +2716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>135</v>
       </c>
@@ -2770,7 +2780,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>155</v>
       </c>
@@ -2951,10 +2961,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>158</v>
       </c>
@@ -2980,7 +2993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>161</v>
       </c>

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06BB55D-C446-984D-B157-949703E60D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9DC76-C2E4-9947-8DD0-AF8C773C532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1600" windowWidth="47140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="45960" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="381">
   <si>
     <t>iso</t>
   </si>
@@ -1157,10 +1157,25 @@
     <t>years outside range</t>
   </si>
   <si>
-    <t>*adm2 is available but takes too long to run</t>
-  </si>
-  <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>*adm2 available but takes long time to run</t>
+  </si>
+  <si>
+    <t>*in 2008, entire country was affected</t>
+  </si>
+  <si>
+    <t>*only very few regions affected</t>
+  </si>
+  <si>
+    <t>*quite a few years where only one region wasn't affected</t>
+  </si>
+  <si>
+    <t>*one year where all regions were affected</t>
+  </si>
+  <si>
+    <t>*very few regions affected</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1534,8 @@
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1535,8 +1550,8 @@
     <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="56.1640625" style="2" customWidth="1"/>
     <col min="11" max="12" width="8.83203125" style="2"/>
-    <col min="13" max="13" width="18.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="44.5" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1581,7 +1596,7 @@
         <v>371</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2028,7 +2043,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2057,7 +2072,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -2083,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -2115,7 +2130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -2147,7 +2162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -2179,7 +2194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -2211,7 +2226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -2304,7 +2319,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -2330,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
@@ -2361,8 +2376,11 @@
       <c r="L27" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N27" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
@@ -2385,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>99</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
@@ -2446,7 +2464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
@@ -2925,8 +2943,11 @@
       <c r="L45" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="N45" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>155</v>
       </c>
@@ -2964,7 +2985,7 @@
         <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -3024,6 +3045,9 @@
       <c r="L48" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="N48" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -3507,7 +3531,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>205</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>206</v>
       </c>
@@ -3562,7 +3586,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>209</v>
       </c>
@@ -3600,7 +3624,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>212</v>
       </c>
@@ -3623,7 +3647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>213</v>
       </c>
@@ -3649,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -3687,7 +3711,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>221</v>
       </c>
@@ -3719,7 +3743,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>226</v>
       </c>
@@ -3751,7 +3775,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
@@ -3783,7 +3807,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -3815,7 +3839,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>237</v>
       </c>
@@ -3847,7 +3871,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>242</v>
       </c>
@@ -3879,7 +3903,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>245</v>
       </c>
@@ -3911,7 +3935,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>250</v>
       </c>
@@ -3948,8 +3972,11 @@
       <c r="L78" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N78" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>254</v>
       </c>
@@ -3972,7 +3999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>255</v>
       </c>
@@ -4004,7 +4031,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>258</v>
       </c>
@@ -4039,10 +4066,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>262</v>
       </c>
@@ -4071,7 +4101,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>263</v>
       </c>
@@ -4094,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>264</v>
       </c>
@@ -4123,7 +4153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -4149,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>269</v>
       </c>
@@ -4181,7 +4211,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>272</v>
       </c>
@@ -4207,7 +4237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>275</v>
       </c>
@@ -4239,7 +4269,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>278</v>
       </c>
@@ -4271,7 +4301,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>282</v>
       </c>
@@ -4297,7 +4327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>285</v>
       </c>
@@ -4328,8 +4358,11 @@
       <c r="L91" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N91" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>287</v>
       </c>
@@ -4352,7 +4385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
@@ -4378,7 +4411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>290</v>
       </c>
@@ -4401,7 +4434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>291</v>
       </c>
@@ -4427,7 +4460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>293</v>
       </c>
@@ -4932,7 +4965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>340</v>
       </c>
@@ -4955,7 +4988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>341</v>
       </c>
@@ -4981,7 +5014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>344</v>
       </c>
@@ -5010,7 +5043,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>345</v>
       </c>
@@ -5041,8 +5074,11 @@
       <c r="L116" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N116" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>348</v>
       </c>
@@ -5071,7 +5107,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>349</v>
       </c>
@@ -5097,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>352</v>
       </c>
@@ -5129,7 +5165,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>355</v>
       </c>
@@ -5161,7 +5197,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>359</v>
       </c>
@@ -5193,7 +5229,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>362</v>
       </c>
@@ -5229,6 +5265,9 @@
       </c>
       <c r="L122" s="2" t="s">
         <v>369</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9DC76-C2E4-9947-8DD0-AF8C773C532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA3B90-9FB9-FA43-B1A8-5AEF54EDF3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="45960" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="500" windowWidth="44300" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="380">
   <si>
     <t>iso</t>
   </si>
@@ -1160,22 +1160,19 @@
     <t>notes</t>
   </si>
   <si>
-    <t>*adm2 available but takes long time to run</t>
-  </si>
-  <si>
     <t>*in 2008, entire country was affected</t>
   </si>
   <si>
-    <t>*only very few regions affected</t>
-  </si>
-  <si>
-    <t>*quite a few years where only one region wasn't affected</t>
-  </si>
-  <si>
     <t>*one year where all regions were affected</t>
   </si>
   <si>
-    <t>*very few regions affected</t>
+    <t>*in 2001, entire country was affected</t>
+  </si>
+  <si>
+    <t>start_yr</t>
+  </si>
+  <si>
+    <t>end_yr</t>
   </si>
 </sst>
 </file>
@@ -1199,12 +1196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1219,12 +1222,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1531,11 +1540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N122" sqref="N122"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1564,7 @@
     <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,8 +1607,14 @@
       <c r="N1" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1657,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1831,7 +1846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1863,45 +1878,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>590319</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>590319</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>155460</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O11" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1924,7 +1945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1950,39 +1971,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>37121</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2003</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -2014,7 +2044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2043,7 +2073,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2072,7 +2102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -2130,7 +2160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -2162,7 +2192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -2194,7 +2224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -2226,7 +2256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -2252,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2284,42 +2314,48 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>20124</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3">
         <v>21057</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="3">
         <v>1</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -2345,42 +2381,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>79411</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
@@ -2403,45 +2445,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>235957</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>144103</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>144323</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="3">
         <v>1</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
@@ -2464,7 +2512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
@@ -2487,7 +2535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
@@ -2519,7 +2567,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -2551,7 +2599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2580,7 +2628,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -2612,7 +2660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -2638,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
@@ -2670,7 +2718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
@@ -2702,7 +2750,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>127</v>
       </c>
@@ -2734,7 +2782,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -2760,45 +2808,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>106463</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>106463</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>107073</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="3">
         <v>1</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -2830,165 +2884,183 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>251398</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>90897</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="3">
         <v>92641</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="3">
         <v>1</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="L43" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>146276</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>146276</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="3">
         <v>148468</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="L44" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>544712</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>59585</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="3">
         <v>62856</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="O45" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P45" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>5804662</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>5804662</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="3">
         <v>5828555</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>1981</v>
+      </c>
+      <c r="P46" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>158</v>
       </c>
@@ -3014,42 +3086,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>37184</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>164</v>
       </c>
@@ -3072,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>165</v>
       </c>
@@ -3098,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>168</v>
       </c>
@@ -3130,7 +3205,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>171</v>
       </c>
@@ -3162,45 +3237,51 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>378752</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>378752</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="3">
         <v>381007</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="L53" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P53" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>178</v>
       </c>
@@ -3223,39 +3304,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>198984</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="2">
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="3">
         <v>1</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="O55" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P55" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>182</v>
       </c>
@@ -3287,7 +3374,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>185</v>
       </c>
@@ -3316,7 +3403,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
@@ -3345,7 +3432,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>187</v>
       </c>
@@ -3374,7 +3461,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>191</v>
       </c>
@@ -3412,7 +3499,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>194</v>
       </c>
@@ -3441,45 +3528,51 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>298701</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>240445</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="3">
         <v>174240</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="3">
         <v>1</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
@@ -3502,7 +3595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>204</v>
       </c>
@@ -3531,7 +3624,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>205</v>
       </c>
@@ -3554,7 +3647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>206</v>
       </c>
@@ -3586,45 +3679,51 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>56824</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>56824</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="3">
         <v>56824</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="3">
         <v>1</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L67" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1982</v>
+      </c>
+      <c r="P67" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>212</v>
       </c>
@@ -3647,7 +3746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>213</v>
       </c>
@@ -3673,45 +3772,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>189123</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>54723</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="3">
         <v>54801</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="3">
         <v>1</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P70" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>221</v>
       </c>
@@ -3743,7 +3848,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>226</v>
       </c>
@@ -3775,7 +3880,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
@@ -3807,7 +3912,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -3839,7 +3944,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>237</v>
       </c>
@@ -3871,39 +3976,45 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>103144</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K76" s="2">
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="3">
         <v>1</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>245</v>
       </c>
@@ -3935,48 +4046,51 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:16" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>1371456</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>1371456</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="3">
         <v>25442</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="3">
         <v>1</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="N78" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O78" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P78" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>254</v>
       </c>
@@ -3999,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>255</v>
       </c>
@@ -4031,48 +4145,51 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>402227</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>341667</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="3">
         <v>345451</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="3">
         <v>1</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N81" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P81" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>262</v>
       </c>
@@ -4101,7 +4218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>263</v>
       </c>
@@ -4124,7 +4241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>264</v>
       </c>
@@ -4153,7 +4270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -4179,7 +4296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>269</v>
       </c>
@@ -4211,7 +4328,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>272</v>
       </c>
@@ -4237,7 +4354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>275</v>
       </c>
@@ -4269,7 +4386,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>278</v>
       </c>
@@ -4301,7 +4418,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>282</v>
       </c>
@@ -4327,42 +4444,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>24322</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="2">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" s="2">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="3">
         <v>1</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P91" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>287</v>
       </c>
@@ -4385,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
@@ -4411,7 +4531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>290</v>
       </c>
@@ -4434,7 +4554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>291</v>
       </c>
@@ -4460,7 +4580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>293</v>
       </c>
@@ -4492,7 +4612,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>298</v>
       </c>
@@ -4518,39 +4638,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>3831</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K98" s="2">
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="3">
         <v>1</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L98" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>1986</v>
+      </c>
+      <c r="P98" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>302</v>
       </c>
@@ -4582,7 +4708,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>304</v>
       </c>
@@ -4614,39 +4740,45 @@
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>204931</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E101" s="2">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K101" s="2">
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="3">
         <v>1</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="L101" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>1985</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>312</v>
       </c>
@@ -4678,7 +4810,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>316</v>
       </c>
@@ -4704,7 +4836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>318</v>
       </c>
@@ -4736,71 +4868,83 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>12456</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E105" s="2">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" s="2">
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="3">
         <v>1</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L105" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="O105" s="3">
+        <v>1985</v>
+      </c>
+      <c r="P105" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="4">
         <v>20145</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="2">
-        <v>0</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K106" s="2">
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="4">
         <v>1</v>
       </c>
-      <c r="L106" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M106" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="O106" s="4">
+        <v>1980</v>
+      </c>
+      <c r="P106" s="4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>326</v>
       </c>
@@ -4823,7 +4967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>327</v>
       </c>
@@ -4849,7 +4993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>329</v>
       </c>
@@ -4875,7 +5019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>332</v>
       </c>
@@ -4907,7 +5051,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>336</v>
       </c>
@@ -4939,7 +5083,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -4965,7 +5109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>340</v>
       </c>
@@ -4988,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>341</v>
       </c>
@@ -5014,7 +5158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>344</v>
       </c>
@@ -5043,42 +5187,48 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>10836</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="2">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" s="2">
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="3">
         <v>1</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="L116" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N116" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N116" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="O116" s="3">
+        <v>1991</v>
+      </c>
+      <c r="P116" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>348</v>
       </c>
@@ -5107,7 +5257,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>349</v>
       </c>
@@ -5133,7 +5283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>352</v>
       </c>
@@ -5165,7 +5315,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>355</v>
       </c>
@@ -5197,7 +5347,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>359</v>
       </c>
@@ -5229,45 +5379,48 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>436624</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="3">
         <v>141631</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="3">
         <v>143994</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I122" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="3">
         <v>1</v>
       </c>
-      <c r="L122" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>380</v>
+      <c r="L122" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O122" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P122" s="3">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA3B90-9FB9-FA43-B1A8-5AEF54EDF3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCE438-4425-A246-8DA3-96CC9FC38184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="500" windowWidth="44300" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="500" windowWidth="48620" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="384">
   <si>
     <t>iso</t>
   </si>
@@ -1173,6 +1173,18 @@
   </si>
   <si>
     <t>end_yr</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>st_yr</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ed_yr</t>
   </si>
 </sst>
 </file>
@@ -1233,9 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,13 +1568,16 @@
     <col min="8" max="8" width="8.83203125" style="2"/>
     <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="56.1640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" style="2"/>
-    <col min="13" max="13" width="15.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="44.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="9.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="15.83203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="44.5" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,26 +1608,35 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1639,8 +1661,17 @@
       <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1980</v>
+      </c>
+      <c r="M2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1671,8 +1702,17 @@
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1981</v>
+      </c>
+      <c r="M3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1703,8 +1743,17 @@
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1980</v>
+      </c>
+      <c r="M4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1726,8 +1775,13 @@
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1755,8 +1809,17 @@
       <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1980</v>
+      </c>
+      <c r="M6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1781,8 +1844,17 @@
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1980</v>
+      </c>
+      <c r="M7">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1813,8 +1885,17 @@
       <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1980</v>
+      </c>
+      <c r="M8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1845,8 +1926,17 @@
       <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1980</v>
+      </c>
+      <c r="M9">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1877,8 +1967,17 @@
       <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1980</v>
+      </c>
+      <c r="M10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1909,20 +2008,29 @@
       <c r="J11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1980</v>
+      </c>
+      <c r="M11">
+        <v>2015</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="R11" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S11" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2052,13 @@
       <c r="I12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1970,8 +2083,17 @@
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1980</v>
+      </c>
+      <c r="M13">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -1996,23 +2118,32 @@
       <c r="I14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1980</v>
+      </c>
+      <c r="M14">
+        <v>2012</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>2003</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -2043,8 +2174,17 @@
       <c r="J15" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1980</v>
+      </c>
+      <c r="M15">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2066,14 +2206,19 @@
       <c r="I16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="K16" t="s">
+        <v>382</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2095,14 +2240,19 @@
       <c r="I17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="K17" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -2127,8 +2277,17 @@
       <c r="I18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1980</v>
+      </c>
+      <c r="M18">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -2159,8 +2318,17 @@
       <c r="J19" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1980</v>
+      </c>
+      <c r="M19">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -2191,8 +2359,17 @@
       <c r="J20" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1980</v>
+      </c>
+      <c r="M20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -2223,8 +2400,17 @@
       <c r="J21" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1980</v>
+      </c>
+      <c r="M21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -2255,8 +2441,17 @@
       <c r="J22" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1980</v>
+      </c>
+      <c r="M22">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -2281,8 +2476,17 @@
       <c r="I23" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1980</v>
+      </c>
+      <c r="M23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2313,8 +2517,17 @@
       <c r="J24" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1980</v>
+      </c>
+      <c r="M24">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>89</v>
       </c>
@@ -2342,20 +2555,29 @@
       <c r="J25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1980</v>
+      </c>
+      <c r="M25">
+        <v>2008</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O25" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P25" s="3">
+      <c r="R25" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S25" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -2380,8 +2602,17 @@
       <c r="I26" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1980</v>
+      </c>
+      <c r="M26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -2406,23 +2637,32 @@
       <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1980</v>
+      </c>
+      <c r="M27">
+        <v>2015</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="O27" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S27" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
@@ -2444,8 +2684,13 @@
       <c r="I28" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>382</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
@@ -2476,20 +2721,29 @@
       <c r="J29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1980</v>
+      </c>
+      <c r="M29">
+        <v>2009</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O29" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S29" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
@@ -2511,8 +2765,13 @@
       <c r="I30" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>382</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
@@ -2534,8 +2793,13 @@
       <c r="I31" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>382</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
@@ -2566,8 +2830,17 @@
       <c r="J32" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1980</v>
+      </c>
+      <c r="M32">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -2598,8 +2871,17 @@
       <c r="J33" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1980</v>
+      </c>
+      <c r="M33">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2621,14 +2903,19 @@
       <c r="I34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="K34" t="s">
+        <v>382</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -2659,8 +2946,17 @@
       <c r="J35" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1980</v>
+      </c>
+      <c r="M35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -2685,8 +2981,17 @@
       <c r="I36" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1980</v>
+      </c>
+      <c r="M36">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
@@ -2717,8 +3022,17 @@
       <c r="J37" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1980</v>
+      </c>
+      <c r="M37">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
@@ -2749,8 +3063,17 @@
       <c r="J38" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1980</v>
+      </c>
+      <c r="M38">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>127</v>
       </c>
@@ -2781,8 +3104,17 @@
       <c r="J39" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1980</v>
+      </c>
+      <c r="M39">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -2807,8 +3139,17 @@
       <c r="I40" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1980</v>
+      </c>
+      <c r="M40">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>135</v>
       </c>
@@ -2839,20 +3180,29 @@
       <c r="J41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1980</v>
+      </c>
+      <c r="M41">
+        <v>2011</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O41" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S41" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -2883,8 +3233,17 @@
       <c r="J42" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1980</v>
+      </c>
+      <c r="M42">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>143</v>
       </c>
@@ -2915,20 +3274,29 @@
       <c r="J43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1980</v>
+      </c>
+      <c r="M43">
+        <v>2015</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O43" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>147</v>
       </c>
@@ -2959,20 +3327,29 @@
       <c r="J44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1980</v>
+      </c>
+      <c r="M44">
+        <v>2008</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O44" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S44" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
@@ -3003,20 +3380,29 @@
       <c r="J45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1980</v>
+      </c>
+      <c r="M45">
+        <v>2013</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O45" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S45" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>155</v>
       </c>
@@ -3047,20 +3433,29 @@
       <c r="J46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1981</v>
+      </c>
+      <c r="M46">
+        <v>2015</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1981</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>158</v>
       </c>
@@ -3085,8 +3480,17 @@
       <c r="I47" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1980</v>
+      </c>
+      <c r="M47">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>161</v>
       </c>
@@ -3111,20 +3515,29 @@
       <c r="I48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3" t="s">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1980</v>
+      </c>
+      <c r="M48">
+        <v>2007</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O48" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S48" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>164</v>
       </c>
@@ -3146,8 +3559,13 @@
       <c r="I49" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>382</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>165</v>
       </c>
@@ -3172,8 +3590,17 @@
       <c r="I50" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1980</v>
+      </c>
+      <c r="M50">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>168</v>
       </c>
@@ -3204,8 +3631,17 @@
       <c r="J51" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1980</v>
+      </c>
+      <c r="M51">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>171</v>
       </c>
@@ -3236,8 +3672,17 @@
       <c r="J52" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1980</v>
+      </c>
+      <c r="M52">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>175</v>
       </c>
@@ -3268,20 +3713,29 @@
       <c r="J53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3" t="s">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1980</v>
+      </c>
+      <c r="M53">
+        <v>2015</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O53" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P53" s="3">
+      <c r="R53" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S53" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>178</v>
       </c>
@@ -3303,8 +3757,13 @@
       <c r="I54" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>179</v>
       </c>
@@ -3329,20 +3788,29 @@
       <c r="I55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3" t="s">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1980</v>
+      </c>
+      <c r="M55">
+        <v>2013</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O55" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P55" s="3">
+      <c r="R55" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S55" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>182</v>
       </c>
@@ -3373,8 +3841,17 @@
       <c r="J56" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1980</v>
+      </c>
+      <c r="M56">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>185</v>
       </c>
@@ -3396,14 +3873,19 @@
       <c r="I57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2" t="s">
+      <c r="K57" t="s">
+        <v>382</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
@@ -3425,14 +3907,19 @@
       <c r="I58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2" t="s">
+      <c r="K58" t="s">
+        <v>382</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>187</v>
       </c>
@@ -3460,8 +3947,17 @@
       <c r="J59" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1980</v>
+      </c>
+      <c r="M59">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>191</v>
       </c>
@@ -3492,14 +3988,23 @@
       <c r="J60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2" t="s">
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1980</v>
+      </c>
+      <c r="M60">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>194</v>
       </c>
@@ -3527,8 +4032,17 @@
       <c r="J61" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1980</v>
+      </c>
+      <c r="M61">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>197</v>
       </c>
@@ -3559,20 +4073,29 @@
       <c r="J62" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3" t="s">
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1980</v>
+      </c>
+      <c r="M62">
+        <v>2015</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="O62" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S62" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
@@ -3594,8 +4117,13 @@
       <c r="I63" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>382</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>204</v>
       </c>
@@ -3617,14 +4145,19 @@
       <c r="I64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2" t="s">
+      <c r="K64" t="s">
+        <v>382</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>205</v>
       </c>
@@ -3646,8 +4179,13 @@
       <c r="I65" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>382</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>206</v>
       </c>
@@ -3678,8 +4216,17 @@
       <c r="J66" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1980</v>
+      </c>
+      <c r="M66">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>209</v>
       </c>
@@ -3710,20 +4257,29 @@
       <c r="J67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
-      <c r="L67" s="3" t="s">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1980</v>
+      </c>
+      <c r="M67">
+        <v>2012</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O67" s="3">
+      <c r="R67" s="3">
         <v>1982</v>
       </c>
-      <c r="P67" s="3">
+      <c r="S67" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>212</v>
       </c>
@@ -3745,8 +4301,13 @@
       <c r="I68" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>382</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68"/>
+    </row>
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>213</v>
       </c>
@@ -3771,8 +4332,17 @@
       <c r="I69" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1980</v>
+      </c>
+      <c r="M69">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
@@ -3803,20 +4373,29 @@
       <c r="J70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K70" s="3">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1980</v>
+      </c>
+      <c r="M70">
+        <v>2007</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O70" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S70" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>221</v>
       </c>
@@ -3847,8 +4426,17 @@
       <c r="J71" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1980</v>
+      </c>
+      <c r="M71">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>226</v>
       </c>
@@ -3879,8 +4467,17 @@
       <c r="J72" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1980</v>
+      </c>
+      <c r="M72">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
@@ -3911,8 +4508,17 @@
       <c r="J73" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1980</v>
+      </c>
+      <c r="M73">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -3943,8 +4549,17 @@
       <c r="J74" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1980</v>
+      </c>
+      <c r="M74">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>237</v>
       </c>
@@ -3975,8 +4590,17 @@
       <c r="J75" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1980</v>
+      </c>
+      <c r="M75">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>242</v>
       </c>
@@ -4001,20 +4625,29 @@
       <c r="I76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="3">
-        <v>1</v>
-      </c>
-      <c r="L76" s="3" t="s">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1980</v>
+      </c>
+      <c r="M76">
+        <v>1997</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O76" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S76" s="3">
         <v>1997</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>245</v>
       </c>
@@ -4045,8 +4678,17 @@
       <c r="J77" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1980</v>
+      </c>
+      <c r="M77">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>250</v>
       </c>
@@ -4077,20 +4719,29 @@
       <c r="J78" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K78" s="3">
-        <v>1</v>
-      </c>
-      <c r="L78" s="3" t="s">
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>1980</v>
+      </c>
+      <c r="M78">
+        <v>2015</v>
+      </c>
+      <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="O78" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P78" s="3">
+      <c r="R78" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S78" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>254</v>
       </c>
@@ -4112,8 +4763,13 @@
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>382</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79"/>
+    </row>
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>255</v>
       </c>
@@ -4144,8 +4800,17 @@
       <c r="J80" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1980</v>
+      </c>
+      <c r="M80">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>258</v>
       </c>
@@ -4176,20 +4841,29 @@
       <c r="J81" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K81" s="3">
-        <v>1</v>
-      </c>
-      <c r="L81" s="3" t="s">
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1980</v>
+      </c>
+      <c r="M81">
+        <v>2015</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O81" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S81" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>262</v>
       </c>
@@ -4211,14 +4885,19 @@
       <c r="I82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2" t="s">
+      <c r="K82" t="s">
+        <v>382</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>263</v>
       </c>
@@ -4240,8 +4919,13 @@
       <c r="I83" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>382</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83"/>
+    </row>
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>264</v>
       </c>
@@ -4269,8 +4953,17 @@
       <c r="I84" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1980</v>
+      </c>
+      <c r="M84">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -4295,8 +4988,17 @@
       <c r="I85" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1980</v>
+      </c>
+      <c r="M85">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>269</v>
       </c>
@@ -4327,8 +5029,17 @@
       <c r="J86" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1980</v>
+      </c>
+      <c r="M86">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>272</v>
       </c>
@@ -4353,8 +5064,17 @@
       <c r="I87" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1980</v>
+      </c>
+      <c r="M87">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>275</v>
       </c>
@@ -4385,8 +5105,17 @@
       <c r="J88" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1980</v>
+      </c>
+      <c r="M88">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>278</v>
       </c>
@@ -4417,8 +5146,17 @@
       <c r="J89" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1980</v>
+      </c>
+      <c r="M89">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>282</v>
       </c>
@@ -4443,8 +5181,17 @@
       <c r="I90" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1980</v>
+      </c>
+      <c r="M90">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>285</v>
       </c>
@@ -4469,20 +5216,29 @@
       <c r="I91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K91" s="3">
-        <v>1</v>
-      </c>
-      <c r="L91" s="3" t="s">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1980</v>
+      </c>
+      <c r="M91">
+        <v>2002</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O91" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S91" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>287</v>
       </c>
@@ -4504,8 +5260,13 @@
       <c r="I92" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>382</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+    </row>
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
@@ -4530,8 +5291,17 @@
       <c r="I93" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1980</v>
+      </c>
+      <c r="M93">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>290</v>
       </c>
@@ -4553,8 +5323,13 @@
       <c r="I94" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K94" t="s">
+        <v>382</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>291</v>
       </c>
@@ -4579,8 +5354,17 @@
       <c r="I95" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1980</v>
+      </c>
+      <c r="M95">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>293</v>
       </c>
@@ -4611,8 +5395,17 @@
       <c r="J96" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1980</v>
+      </c>
+      <c r="M96">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>298</v>
       </c>
@@ -4637,8 +5430,17 @@
       <c r="I97" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1980</v>
+      </c>
+      <c r="M97">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>300</v>
       </c>
@@ -4663,20 +5465,29 @@
       <c r="I98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K98" s="3">
-        <v>1</v>
-      </c>
-      <c r="L98" s="3" t="s">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1986</v>
+      </c>
+      <c r="M98">
+        <v>2015</v>
+      </c>
+      <c r="N98" s="3">
+        <v>1</v>
+      </c>
+      <c r="O98" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O98" s="3">
+      <c r="R98" s="3">
         <v>1986</v>
       </c>
-      <c r="P98" s="3">
+      <c r="S98" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>302</v>
       </c>
@@ -4707,8 +5518,17 @@
       <c r="J99" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1980</v>
+      </c>
+      <c r="M99">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>304</v>
       </c>
@@ -4739,8 +5559,17 @@
       <c r="J100" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1980</v>
+      </c>
+      <c r="M100">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>309</v>
       </c>
@@ -4765,20 +5594,29 @@
       <c r="I101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K101" s="3">
-        <v>1</v>
-      </c>
-      <c r="L101" s="3" t="s">
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1985</v>
+      </c>
+      <c r="M101">
+        <v>2015</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>1985</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>312</v>
       </c>
@@ -4809,8 +5647,17 @@
       <c r="J102" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1980</v>
+      </c>
+      <c r="M102">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>316</v>
       </c>
@@ -4835,8 +5682,17 @@
       <c r="I103" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1980</v>
+      </c>
+      <c r="M103">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>318</v>
       </c>
@@ -4867,8 +5723,17 @@
       <c r="J104" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1980</v>
+      </c>
+      <c r="M104">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>321</v>
       </c>
@@ -4893,58 +5758,76 @@
       <c r="I105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K105" s="3">
-        <v>1</v>
-      </c>
-      <c r="L105" s="3" t="s">
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1985</v>
+      </c>
+      <c r="M105">
+        <v>2015</v>
+      </c>
+      <c r="N105" s="3">
+        <v>1</v>
+      </c>
+      <c r="O105" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O105" s="3">
+      <c r="R105" s="3">
         <v>1985</v>
       </c>
-      <c r="P105" s="3">
+      <c r="S105" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="2">
         <v>20145</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E106" s="4">
-        <v>0</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="4">
-        <v>0</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K106" s="4">
-        <v>1</v>
-      </c>
-      <c r="M106" s="4" t="s">
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1980</v>
+      </c>
+      <c r="M106">
+        <v>2002</v>
+      </c>
+      <c r="N106" s="2">
+        <v>1</v>
+      </c>
+      <c r="P106" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="O106" s="4">
-        <v>1980</v>
-      </c>
-      <c r="P106" s="4">
+      <c r="R106" s="2">
+        <v>1980</v>
+      </c>
+      <c r="S106" s="2">
         <v>2002</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>326</v>
       </c>
@@ -4966,8 +5849,13 @@
       <c r="I107" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K107" t="s">
+        <v>382</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107"/>
+    </row>
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>327</v>
       </c>
@@ -4992,8 +5880,17 @@
       <c r="I108" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1980</v>
+      </c>
+      <c r="M108">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>329</v>
       </c>
@@ -5018,8 +5915,17 @@
       <c r="I109" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1980</v>
+      </c>
+      <c r="M109">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>332</v>
       </c>
@@ -5050,8 +5956,17 @@
       <c r="J110" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1980</v>
+      </c>
+      <c r="M110">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>336</v>
       </c>
@@ -5082,8 +5997,17 @@
       <c r="J111" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1980</v>
+      </c>
+      <c r="M111">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -5108,8 +6032,17 @@
       <c r="I112" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1980</v>
+      </c>
+      <c r="M112">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>340</v>
       </c>
@@ -5131,8 +6064,13 @@
       <c r="I113" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K113" t="s">
+        <v>382</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>341</v>
       </c>
@@ -5157,8 +6095,17 @@
       <c r="I114" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1987</v>
+      </c>
+      <c r="M114">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>344</v>
       </c>
@@ -5180,14 +6127,19 @@
       <c r="I115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K115" s="2">
-        <v>1</v>
-      </c>
-      <c r="M115" s="2" t="s">
+      <c r="K115" t="s">
+        <v>382</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115" s="2">
+        <v>1</v>
+      </c>
+      <c r="P115" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>345</v>
       </c>
@@ -5212,23 +6164,32 @@
       <c r="I116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K116" s="3">
-        <v>1</v>
-      </c>
-      <c r="L116" s="3" t="s">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1980</v>
+      </c>
+      <c r="M116">
+        <v>2004</v>
+      </c>
+      <c r="N116" s="3">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N116" s="3" t="s">
+      <c r="Q116" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="O116" s="3">
+      <c r="R116" s="3">
         <v>1991</v>
       </c>
-      <c r="P116" s="3">
+      <c r="S116" s="3">
         <v>2003</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>348</v>
       </c>
@@ -5250,14 +6211,19 @@
       <c r="I117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K117" s="2">
-        <v>1</v>
-      </c>
-      <c r="M117" s="2" t="s">
+      <c r="K117" t="s">
+        <v>382</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117" s="2">
+        <v>1</v>
+      </c>
+      <c r="P117" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>349</v>
       </c>
@@ -5282,8 +6248,17 @@
       <c r="I118" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1980</v>
+      </c>
+      <c r="M118">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>352</v>
       </c>
@@ -5308,14 +6283,23 @@
       <c r="I119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K119" s="2">
-        <v>1</v>
-      </c>
-      <c r="M119" s="2" t="s">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1980</v>
+      </c>
+      <c r="M119">
+        <v>2009</v>
+      </c>
+      <c r="N119" s="2">
+        <v>1</v>
+      </c>
+      <c r="P119" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>355</v>
       </c>
@@ -5346,8 +6330,17 @@
       <c r="J120" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1980</v>
+      </c>
+      <c r="M120">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>359</v>
       </c>
@@ -5378,8 +6371,17 @@
       <c r="J121" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1980</v>
+      </c>
+      <c r="M121">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>362</v>
       </c>
@@ -5410,16 +6412,25 @@
       <c r="J122" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="K122" s="3">
-        <v>1</v>
-      </c>
-      <c r="L122" s="3" t="s">
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1980</v>
+      </c>
+      <c r="M122">
+        <v>2015</v>
+      </c>
+      <c r="N122" s="3">
+        <v>1</v>
+      </c>
+      <c r="O122" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O122" s="3">
-        <v>1980</v>
-      </c>
-      <c r="P122" s="3">
+      <c r="R122" s="3">
+        <v>1980</v>
+      </c>
+      <c r="S122" s="3">
         <v>2015</v>
       </c>
     </row>

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF4EC7-F843-CE4B-BA8F-1E3C46C62B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58E7B9-7706-D048-A7B3-5043A99439BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11320" yWindow="3600" windowWidth="29700" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>iso</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Adm1</t>
+  </si>
+  <si>
+    <t>exclude</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,7 +367,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,18 +671,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="6"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +710,11 @@
       <c r="J1" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -743,8 +745,11 @@
       <c r="J2" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -775,8 +780,11 @@
       <c r="J3" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -807,8 +815,11 @@
       <c r="J4" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -839,8 +850,11 @@
       <c r="J5" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -871,8 +885,11 @@
       <c r="J6" s="5">
         <v>2009</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -903,8 +920,11 @@
       <c r="J7" s="5">
         <v>2008</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -935,8 +955,11 @@
       <c r="J8" s="5">
         <v>2007</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -967,8 +990,11 @@
       <c r="J9" s="5">
         <v>2013</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -999,8 +1025,11 @@
       <c r="J10" s="5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1031,8 +1060,11 @@
       <c r="J11" s="5">
         <v>2011</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1063,8 +1095,11 @@
       <c r="J12" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1095,8 +1130,11 @@
       <c r="J13" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1127,8 +1165,11 @@
       <c r="J14" s="5">
         <v>2004</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1159,8 +1200,11 @@
       <c r="J15" s="5">
         <v>2013</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1191,8 +1235,11 @@
       <c r="J16" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1223,8 +1270,11 @@
       <c r="J17" s="5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1255,8 +1305,11 @@
       <c r="J18" s="5">
         <v>2007</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1287,8 +1340,11 @@
       <c r="J19" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1319,8 +1375,11 @@
       <c r="J20" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1351,8 +1410,11 @@
       <c r="J21" s="5">
         <v>2008</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1383,8 +1445,11 @@
       <c r="J22" s="5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1415,8 +1480,11 @@
       <c r="J23" s="5">
         <v>2002</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1447,8 +1515,11 @@
       <c r="J24" s="5">
         <v>2009</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1479,8 +1550,11 @@
       <c r="J25" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1511,8 +1585,11 @@
       <c r="J26" s="5">
         <v>1997</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1543,8 +1620,11 @@
       <c r="J27" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1575,8 +1655,11 @@
       <c r="J28" s="5">
         <v>2006</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1607,8 +1690,11 @@
       <c r="J29" s="5">
         <v>2014</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1639,8 +1725,11 @@
       <c r="J30" s="5">
         <v>2002</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1671,8 +1760,11 @@
       <c r="J31" s="5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1703,8 +1795,11 @@
       <c r="J32" s="5">
         <v>2010</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1735,8 +1830,11 @@
       <c r="J33" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1767,8 +1865,11 @@
       <c r="J34" s="5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1799,8 +1900,11 @@
       <c r="J35" s="5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1830,6 +1934,9 @@
       </c>
       <c r="J36" s="5">
         <v>2000</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58E7B9-7706-D048-A7B3-5043A99439BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FCA6B-2A35-0F4F-95A6-92A8DA08F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11320" yWindow="3600" windowWidth="29700" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>iso</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>exclude</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>not many TCs</t>
+  </si>
+  <si>
+    <t>no overlapping DHS/MICS data with cyclone</t>
   </si>
 </sst>
 </file>
@@ -671,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,8 +722,11 @@
       <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -749,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -784,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -819,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -854,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -889,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -924,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1518,8 +1530,11 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1589,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1623,8 +1638,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1726,10 +1744,13 @@
         <v>2002</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1763,8 +1784,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1799,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1834,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1869,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1903,8 +1927,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1936,7 +1963,10 @@
         <v>2000</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FCA6B-2A35-0F4F-95A6-92A8DA08F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596730B-9714-F14A-9F15-40D5D1EBC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="3600" windowWidth="29700" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6500" yWindow="2900" windowWidth="29820" windowHeight="22220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>iso</t>
   </si>
@@ -304,10 +304,13 @@
     <t>reason</t>
   </si>
   <si>
-    <t>not many TCs</t>
-  </si>
-  <si>
     <t>no overlapping DHS/MICS data with cyclone</t>
+  </si>
+  <si>
+    <t>low exposure</t>
+  </si>
+  <si>
+    <t>not enough child marriages</t>
   </si>
 </sst>
 </file>
@@ -682,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,25 +731,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>298701</v>
+        <v>590319</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>240445</v>
+        <v>590319</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>174240</v>
+        <v>155460</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>90</v>
@@ -763,25 +766,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>402227</v>
+        <v>37121</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>341667</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>345451</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>91</v>
@@ -790,7 +793,7 @@
         <v>1980</v>
       </c>
       <c r="J3" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -798,34 +801,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>12456</v>
+        <v>203924</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>203924</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>208935</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="5">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="J4" s="5">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -833,13 +836,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>79411</v>
+        <v>20124</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -848,10 +851,10 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21057</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>91</v>
@@ -860,7 +863,7 @@
         <v>1980</v>
       </c>
       <c r="J5" s="5">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -868,25 +871,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>235957</v>
+        <v>55070</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>144103</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>144323</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>91</v>
@@ -895,7 +898,7 @@
         <v>1980</v>
       </c>
       <c r="J6" s="5">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -903,25 +906,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>146276</v>
+        <v>79411</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>146276</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>148468</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>91</v>
@@ -930,7 +933,7 @@
         <v>1980</v>
       </c>
       <c r="J7" s="5">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -938,25 +941,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>37184</v>
+        <v>235957</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>144103</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>144323</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>91</v>
@@ -965,7 +968,7 @@
         <v>1980</v>
       </c>
       <c r="J8" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -973,25 +976,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>198984</v>
+        <v>106463</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>106463</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>107073</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>91</v>
@@ -1000,7 +1003,7 @@
         <v>1980</v>
       </c>
       <c r="J9" s="5">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1008,25 +1011,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>37121</v>
+        <v>251398</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>90897</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>92641</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>91</v>
@@ -1035,7 +1038,7 @@
         <v>1980</v>
       </c>
       <c r="J10" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1043,25 +1046,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>106463</v>
+        <v>146276</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>106463</v>
+        <v>146276</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>107073</v>
+        <v>148468</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>91</v>
@@ -1070,7 +1073,7 @@
         <v>1980</v>
       </c>
       <c r="J11" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1078,25 +1081,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>251398</v>
+        <v>544712</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>90897</v>
+        <v>59585</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>92641</v>
+        <v>62856</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>91</v>
@@ -1105,7 +1108,7 @@
         <v>1980</v>
       </c>
       <c r="J12" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1148,13 +1151,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>10836</v>
+        <v>37184</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1175,33 +1178,36 @@
         <v>1980</v>
       </c>
       <c r="J14" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>544712</v>
+        <v>378752</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>59585</v>
+        <v>378752</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F15">
-        <v>62856</v>
+        <v>381007</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>91</v>
@@ -1210,7 +1216,7 @@
         <v>1980</v>
       </c>
       <c r="J15" s="5">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1218,34 +1224,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>590319</v>
+        <v>198984</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>590319</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>155460</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" s="5">
         <v>1980</v>
       </c>
       <c r="J16" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1253,69 +1259,72 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>56824</v>
+        <v>68697</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>56824</v>
+        <v>68697</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>56824</v>
+        <v>69209</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I17" s="5">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="J17" s="5">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>189123</v>
+        <v>298701</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>54723</v>
+        <v>240445</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>54801</v>
+        <v>174240</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="5">
         <v>1980</v>
       </c>
       <c r="J18" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1323,34 +1332,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>204931</v>
+        <v>56824</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>56824</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>56824</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I19" s="5">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="J19" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1358,25 +1367,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>378752</v>
+        <v>189123</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>378752</v>
+        <v>54723</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>381007</v>
+        <v>54801</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>91</v>
@@ -1385,7 +1394,7 @@
         <v>1980</v>
       </c>
       <c r="J20" s="5">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1393,25 +1402,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>20124</v>
+        <v>632385</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>289135</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>21057</v>
+        <v>291282</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>91</v>
@@ -1420,33 +1429,36 @@
         <v>1980</v>
       </c>
       <c r="J21" s="5">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B22">
-        <v>106783</v>
+        <v>103144</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>106783</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>106885</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>91</v>
@@ -1455,7 +1467,7 @@
         <v>1980</v>
       </c>
       <c r="J22" s="5">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1463,34 +1475,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B23">
-        <v>24322</v>
+        <v>1371456</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1371456</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>25442</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="5">
         <v>1980</v>
       </c>
       <c r="J23" s="5">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1498,25 +1510,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>96772</v>
+        <v>402227</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>341667</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>345451</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>91</v>
@@ -1525,24 +1537,21 @@
         <v>1980</v>
       </c>
       <c r="J24" s="5">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B25">
-        <v>3831</v>
+        <v>56259</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1560,10 +1569,10 @@
         <v>91</v>
       </c>
       <c r="I25" s="5">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="J25" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1571,13 +1580,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B26">
-        <v>103144</v>
+        <v>24322</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1598,7 +1607,7 @@
         <v>1980</v>
       </c>
       <c r="J26" s="5">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1606,31 +1615,31 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27">
-        <v>632385</v>
+        <v>3831</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>289135</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>291282</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I27" s="5">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="J27" s="5">
         <v>2015</v>
@@ -1639,39 +1648,39 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>203924</v>
+        <v>204931</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>203924</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>208935</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I28" s="5">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="J28" s="5">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1679,25 +1688,25 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>55070</v>
+        <v>106783</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>106783</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>106885</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>91</v>
@@ -1706,7 +1715,7 @@
         <v>1980</v>
       </c>
       <c r="J29" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1714,13 +1723,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>20145</v>
+        <v>12456</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1738,39 +1747,39 @@
         <v>91</v>
       </c>
       <c r="I30" s="5">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="J30" s="5">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>154448</v>
+        <v>20145</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>112061</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>113909</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>91</v>
@@ -1779,7 +1788,7 @@
         <v>1980</v>
       </c>
       <c r="J31" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1790,25 +1799,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32">
-        <v>56259</v>
+        <v>154448</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>112061</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>113909</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>91</v>
@@ -1817,33 +1826,36 @@
         <v>1980</v>
       </c>
       <c r="J32" s="5">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>436624</v>
+        <v>10836</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>141631</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>143994</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>91</v>
@@ -1852,42 +1864,45 @@
         <v>1980</v>
       </c>
       <c r="J33" s="5">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>1371456</v>
+        <v>96772</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>1371456</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>25442</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I34" s="5">
         <v>1980</v>
       </c>
       <c r="J34" s="5">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1928,30 +1943,30 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B36">
-        <v>68697</v>
+        <v>436624</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>68697</v>
+        <v>141631</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F36">
-        <v>69209</v>
+        <v>143994</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>91</v>
@@ -1960,16 +1975,16 @@
         <v>1980</v>
       </c>
       <c r="J36" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596730B-9714-F14A-9F15-40D5D1EBC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20A6E6-5165-C941-AA08-B50ED5EE6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6500" yWindow="2900" windowWidth="29820" windowHeight="22220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
   <si>
     <t>iso</t>
   </si>
@@ -686,7 +686,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1610,10 @@
         <v>2002</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1905,7 +1908,10 @@
         <v>2009</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/meta_dhs_mics_updated.xlsx
+++ b/data/meta_dhs_mics_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20A6E6-5165-C941-AA08-B50ED5EE6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B67880C-A5B7-264D-9CE6-2C889D39440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="2900" windowWidth="29820" windowHeight="22220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18440" yWindow="7020" windowWidth="29820" windowHeight="22220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
   <si>
     <t>iso</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>not enough child marriages</t>
+  </si>
+  <si>
+    <t>less than 5 administrative regions</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,7 +869,10 @@
         <v>2008</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
